--- a/documents/eCR_R1.1_FHIR_Mapping_dstu2.xlsx
+++ b/documents/eCR_R1.1_FHIR_Mapping_dstu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbashyam/git/eCRNow/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37ACAA-D1DB-204F-9D79-CEDF86D619FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A147CA-FCDF-2D43-895E-E85A0421B6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1520" windowWidth="32380" windowHeight="20060" activeTab="1" xr2:uid="{0236C1A8-3996-47BC-AEF5-83819174BBEE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="387">
   <si>
     <t>Data Element</t>
   </si>
@@ -1258,6 +1258,9 @@
   <si>
     <t xml:space="preserve">Implemented
 </t>
+  </si>
+  <si>
+    <t>Implementation Notes</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1779,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.33203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1885,10 +1888,10 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M103" sqref="M103"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1947,7 +1950,7 @@
         <v>95</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>95</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -3286,7 +3289,7 @@
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -3482,7 +3485,7 @@
         <v>377</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
@@ -3519,7 +3522,7 @@
         <v>377</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="117" x14ac:dyDescent="0.15">
@@ -4069,7 +4072,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>107</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>107</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>107</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>107</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>107</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>107</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>107</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>107</v>
       </c>
@@ -5559,15 +5562,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5578,6 +5572,15 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5832,20 +5835,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/eCR_R1.1_FHIR_Mapping_dstu2.xlsx
+++ b/documents/eCR_R1.1_FHIR_Mapping_dstu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbashyam/git/eCRNow/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A147CA-FCDF-2D43-895E-E85A0421B6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09CAD3-6328-F443-86EC-3029BC3D7F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1520" windowWidth="32380" windowHeight="20060" activeTab="1" xr2:uid="{0236C1A8-3996-47BC-AEF5-83819174BBEE}"/>
   </bookViews>
@@ -1888,10 +1888,10 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2394,7 +2394,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
       <c r="M13" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.15">
@@ -5562,6 +5562,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5572,15 +5581,6 @@
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5835,20 +5835,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
